--- a/data/trans_camb/P19_2_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P19_2_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>-3,21</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,14</t>
+          <t>-3,54</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-5,36</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,44</t>
+          <t>3,66</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-3,19</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,88</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>2,23</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2,14</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,32</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,78</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 1,26</t>
+          <t>-3,47; 5,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 1,32</t>
+          <t>-4,43; 5,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 5,06</t>
+          <t>-8,84; 3,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,65; -0,1</t>
+          <t>-9,94; 2,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,58; -1,64</t>
+          <t>-1,66; 9,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,98; -0,31</t>
+          <t>-1,48; 9,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,2; -0,33</t>
+          <t>-3,3; 8,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,78; -1,03</t>
+          <t>-5,86; 7,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 0,78</t>
+          <t>-1,58; 5,92</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-1,66; 5,95</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-4,36; 4,03</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-5,41; 3,21</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-36,78%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-38,14%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>-3,38%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-38,06%</t>
+          <t>-3,73%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-49,26%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-40,73%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-37,68%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-45,9%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-25,08%</t>
+          <t>2,42%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2,33%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-0,35%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-0,85%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-73,89; 37,69</t>
+          <t>-3,67; 6,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-74,43; 44,63</t>
+          <t>-4,56; 6,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-46,85; 132,98</t>
+          <t>-9,16; 3,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-63,57; -0,14</t>
+          <t>-10,28; 2,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-70,3; -17,82</t>
+          <t>-1,76; 10,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-66,39; -3,26</t>
+          <t>-1,59; 11,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-62,27; -1,97</t>
+          <t>-3,64; 9,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-64,83; -11,89</t>
+          <t>-6,15; 8,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-52,49; 11,59</t>
+          <t>-1,68; 6,61</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-1,77; 6,65</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-4,66; 4,51</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-5,86; 3,53</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,7</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,78</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,3</t>
+          <t>3,73</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,9</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,32</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,42</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-3,89</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-4,26</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-4,07</t>
+          <t>2,97</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3,02</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4,48</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3,11</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 0,03</t>
+          <t>-2,29; 8,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 1,18</t>
+          <t>-3,53; 8,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 0,77</t>
+          <t>-1,08; 9,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 2,71</t>
+          <t>-3,85; 8,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 0,26</t>
+          <t>-3,61; 10,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,85; 1,22</t>
+          <t>-2,78; 10,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,42; -0,13</t>
+          <t>-1,5; 11,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,54; -0,95</t>
+          <t>-2,82; 10,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,71; -0,73</t>
+          <t>-1,27; 7,77</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-1,26; 7,88</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0,67; 9,61</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,34; 8,09</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-59,73%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-44,9%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-53,21%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-29,63%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-40,47%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-33,57%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-39,15%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-42,94%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-41,02%</t>
+          <t>3,3%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3,35%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4,97%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3,45%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-86,55; 19,86</t>
+          <t>-2,37; 9,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-79,07; 41,71</t>
+          <t>-3,66; 9,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-86,53; 36,43</t>
+          <t>-1,14; 11,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-62,08; 32,95</t>
+          <t>-3,97; 9,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-68,02; 5,72</t>
+          <t>-3,89; 12,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-62,97; 15,56</t>
+          <t>-3,04; 12,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-64,14; 1,26</t>
+          <t>-1,63; 13,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-65,34; -9,94</t>
+          <t>-3,09; 13,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-65,82; -6,92</t>
+          <t>-1,36; 8,99</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-1,37; 9,22</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0,72; 11,15</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-1,41; 9,48</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,75</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>-7,38</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>-5,05</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>-5,51</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>5,62</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,3</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>-3,77</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,31</t>
+          <t>2,76</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-4,02</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-4,36</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-3,29</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 1,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 10,6</t>
+          <t>-27,17; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 7,74</t>
+          <t>-17,92; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 8,39</t>
+          <t>-31,46; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 8,98</t>
+          <t>-3,87; 19,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 16,61</t>
+          <t>-14,91; 14,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 3,15</t>
+          <t>-19,8; 11,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 6,85</t>
+          <t>-13,41; 13,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 9,38</t>
+          <t>-2,77; 9,32</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-13,46; 4,58</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-13,4; 3,18</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-14,39; 3,9</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-68,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>40,09%</t>
+          <t>-7,38%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>-5,05%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>-5,51%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>129,56%</t>
+          <t>-0,57%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-28,29%</t>
+          <t>-4,14%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>24,88%</t>
+          <t>-1,23%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>74,82%</t>
+          <t>2,88%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-4,2%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-4,56%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-3,44%</t>
         </is>
       </c>
     </row>
@@ -1228,42 +1417,57 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,17; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,92; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,46; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,97; 24,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-63,21; 1156,05</t>
+          <t>-15,75; 17,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-95,65; 207,96</t>
+          <t>-21,06; 13,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-74,43; 351,82</t>
+          <t>-14,08; 17,18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-50,41; 548,92</t>
+          <t>-2,5; 10,3</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-13,84; 4,99</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-13,89; 3,35</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-14,9; 4,11</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,78</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,6</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,78</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,35</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-3,24</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-3,47</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>2,59</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1,86</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1,21</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,5; -0,45</t>
+          <t>-1,94; 4,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 0,56</t>
+          <t>-2,9; 4,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 1,75</t>
+          <t>-4,68; 2,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,21; -0,2</t>
+          <t>-5,83; 2,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,24; -1,73</t>
+          <t>-0,27; 7,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,7; -0,25</t>
+          <t>-0,87; 7,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,39; -0,99</t>
+          <t>-1,47; 6,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,76; -1,39</t>
+          <t>-2,29; 6,17</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,66; -0,22</t>
+          <t>0,14; 5,22</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-0,75; 4,84</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-1,49; 4,22</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-2,46; 3,33</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-49,41%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-34,33%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-16,67%</t>
+          <t>-0,64%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-32,19%</t>
+          <t>-1,56%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-42,65%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-29,92%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-37,7%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-40,39%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-26,6%</t>
+          <t>2,82%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>2,03%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1,32%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,56%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,81 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-73,48; -10,28</t>
+          <t>-2,04; 5,16</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-64,1; 15,8</t>
+          <t>-3,04; 4,4</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-51,61; 45,6</t>
+          <t>-4,86; 2,88</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-55,34; -1,7</t>
+          <t>-6,12; 2,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-62,61; -16,39</t>
+          <t>-0,28; 9,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-50,95; -0,14</t>
+          <t>-0,96; 8,08</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-56,05; -13,01</t>
+          <t>-1,63; 7,63</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-57,26; -17,58</t>
+          <t>-2,5; 7,21</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-47,58; -2,92</t>
+          <t>0,16; 5,82</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-0,82; 5,37</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-1,6; 4,68</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-2,66; 3,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
